--- a/Client/Excel/U_UI界面表.xlsx
+++ b/Client/Excel/U_UI界面表.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UI界面表!$D$1:$D$72</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>界面编号</t>
   </si>
@@ -65,19 +65,10 @@
     <t>都不用</t>
   </si>
   <si>
-    <t>UI_Loading</t>
-  </si>
-  <si>
     <t>loading界面</t>
   </si>
   <si>
-    <t>UI_Main</t>
-  </si>
-  <si>
     <t>游戏主界面</t>
-  </si>
-  <si>
-    <t>UI_Menu</t>
   </si>
   <si>
     <t>游戏菜单界面</t>
@@ -89,6 +80,26 @@
 3000-4000 层级3 存放弹出框等
 4000-5000 层级4 最顶层界面 比如：loading，断线重连动画等
 </t>
+  </si>
+  <si>
+    <t>UI_Loading</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Main</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Main</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -456,7 +467,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -524,7 +535,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
@@ -537,11 +548,11 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>1</v>
+      <c r="A5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>40001</v>
@@ -550,15 +561,15 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>2</v>
+      <c r="A6" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
@@ -567,15 +578,15 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>3</v>
+      <c r="A7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>30001</v>
@@ -584,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -876,7 +887,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="108">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
